--- a/natmiOut/OldD4/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H2">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I2">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J2">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>91.57676853917933</v>
+        <v>109.4724922321395</v>
       </c>
       <c r="R2">
-        <v>91.57676853917933</v>
+        <v>985.252430089256</v>
       </c>
       <c r="S2">
-        <v>5.104527435447654E-05</v>
+        <v>4.398763409365853E-05</v>
       </c>
       <c r="T2">
-        <v>5.104527435447654E-05</v>
+        <v>4.538373085905516E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H3">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I3">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J3">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>4771.764403699986</v>
+        <v>5153.77911879428</v>
       </c>
       <c r="R3">
-        <v>4771.764403699986</v>
+        <v>46384.01206914853</v>
       </c>
       <c r="S3">
-        <v>0.002659801465232764</v>
+        <v>0.002070863149770368</v>
       </c>
       <c r="T3">
-        <v>0.002659801465232764</v>
+        <v>0.002136589015790298</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H4">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I4">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J4">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>3150.709549565239</v>
+        <v>3254.749961365254</v>
       </c>
       <c r="R4">
-        <v>3150.709549565239</v>
+        <v>29292.74965228729</v>
       </c>
       <c r="S4">
-        <v>0.001756218699724258</v>
+        <v>0.001307805709431467</v>
       </c>
       <c r="T4">
-        <v>0.001756218699724258</v>
+        <v>0.001349313359440944</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H5">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I5">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J5">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>3698.217655201106</v>
+        <v>3876.764966179731</v>
       </c>
       <c r="R5">
-        <v>3698.217655201106</v>
+        <v>34890.88469561758</v>
       </c>
       <c r="S5">
-        <v>0.002061402011052017</v>
+        <v>0.001557740353967783</v>
       </c>
       <c r="T5">
-        <v>0.002061402011052017</v>
+        <v>0.001607180527650954</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H6">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I6">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J6">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>1118.026485299343</v>
+        <v>1149.974042325568</v>
       </c>
       <c r="R6">
-        <v>1118.026485299343</v>
+        <v>6899.844253953412</v>
       </c>
       <c r="S6">
-        <v>0.0006231926457774037</v>
+        <v>0.0004620762381453445</v>
       </c>
       <c r="T6">
-        <v>0.0006231926457774037</v>
+        <v>0.0003178278632232877</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H7">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I7">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J7">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>138.9180975476856</v>
+        <v>178.2275668535849</v>
       </c>
       <c r="R7">
-        <v>138.9180975476856</v>
+        <v>1604.048101682264</v>
       </c>
       <c r="S7">
-        <v>7.743352943372046E-05</v>
+        <v>7.1614419625471E-05</v>
       </c>
       <c r="T7">
-        <v>7.743352943372046E-05</v>
+        <v>7.388734613436206E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H8">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I8">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J8">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>7238.56545150058</v>
+        <v>8390.651329063701</v>
       </c>
       <c r="R8">
-        <v>7238.56545150058</v>
+        <v>75515.86196157332</v>
       </c>
       <c r="S8">
-        <v>0.004034806701511873</v>
+        <v>0.003371485319688061</v>
       </c>
       <c r="T8">
-        <v>0.004034806701511873</v>
+        <v>0.003478490841725839</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H9">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I9">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J9">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>4779.493571709415</v>
+        <v>5298.921715428195</v>
       </c>
       <c r="R9">
-        <v>4779.493571709415</v>
+        <v>47690.29543885376</v>
       </c>
       <c r="S9">
-        <v>0.002664109735854962</v>
+        <v>0.002129183548821828</v>
       </c>
       <c r="T9">
-        <v>0.002664109735854962</v>
+        <v>0.002196760410517019</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H10">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I10">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J10">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>5610.04028830743</v>
+        <v>6311.598220676864</v>
       </c>
       <c r="R10">
-        <v>5610.04028830743</v>
+        <v>56804.38398609178</v>
       </c>
       <c r="S10">
-        <v>0.003127059954444706</v>
+        <v>0.002536091646553483</v>
       </c>
       <c r="T10">
-        <v>0.003127059954444706</v>
+        <v>0.002616583116882712</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H11">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I11">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J11">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N11">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O11">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P11">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q11">
-        <v>1695.999048921038</v>
+        <v>1872.224440399605</v>
       </c>
       <c r="R11">
-        <v>1695.999048921038</v>
+        <v>11233.34664239763</v>
       </c>
       <c r="S11">
-        <v>0.0009453569735873267</v>
+        <v>0.0007522869165238961</v>
       </c>
       <c r="T11">
-        <v>0.0009453569735873267</v>
+        <v>0.0005174421956197155</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H12">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I12">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J12">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N12">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O12">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P12">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q12">
-        <v>7289.798950969672</v>
+        <v>10311.35225114289</v>
       </c>
       <c r="R12">
-        <v>7289.798950969672</v>
+        <v>92802.17026028597</v>
       </c>
       <c r="S12">
-        <v>0.004063364468708265</v>
+        <v>0.004143250789178008</v>
       </c>
       <c r="T12">
-        <v>0.004063364468708265</v>
+        <v>0.004274750906067275</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H13">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I13">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J13">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N13">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P13">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q13">
-        <v>379847.4623996413</v>
+        <v>485440.9617877572</v>
       </c>
       <c r="R13">
-        <v>379847.4623996413</v>
+        <v>4368968.656089815</v>
       </c>
       <c r="S13">
-        <v>0.2117285665386415</v>
+        <v>0.1950572145184476</v>
       </c>
       <c r="T13">
-        <v>0.2117285665386415</v>
+        <v>0.2012480168170359</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H14">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I14">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J14">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N14">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O14">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P14">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q14">
-        <v>250806.3948489772</v>
+        <v>306569.007946435</v>
       </c>
       <c r="R14">
-        <v>250806.3948489772</v>
+        <v>2759121.071517915</v>
       </c>
       <c r="S14">
-        <v>0.1398005349953567</v>
+        <v>0.1231838708614382</v>
       </c>
       <c r="T14">
-        <v>0.1398005349953567</v>
+        <v>0.127093528818775</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H15">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I15">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J15">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N15">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O15">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P15">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q15">
-        <v>294389.7629649221</v>
+        <v>365157.3865369008</v>
       </c>
       <c r="R15">
-        <v>294389.7629649221</v>
+        <v>3286416.478832107</v>
       </c>
       <c r="S15">
-        <v>0.1640940869328084</v>
+        <v>0.1467255305700086</v>
       </c>
       <c r="T15">
-        <v>0.1640940869328084</v>
+        <v>0.151382362946893</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H16">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I16">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J16">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N16">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O16">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P16">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q16">
-        <v>88998.4264535886</v>
+        <v>108317.5068760183</v>
       </c>
       <c r="R16">
-        <v>88998.4264535886</v>
+        <v>649905.0412561098</v>
       </c>
       <c r="S16">
-        <v>0.04960809567654181</v>
+        <v>0.04352354423699516</v>
       </c>
       <c r="T16">
-        <v>0.04960809567654181</v>
+        <v>0.02993660769112582</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H17">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I17">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J17">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N17">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O17">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P17">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q17">
-        <v>5160.201826987358</v>
+        <v>9362.566587168156</v>
       </c>
       <c r="R17">
-        <v>5160.201826987358</v>
+        <v>84263.0992845134</v>
       </c>
       <c r="S17">
-        <v>0.002876318111949414</v>
+        <v>0.003762014957516028</v>
       </c>
       <c r="T17">
-        <v>0.002876318111949414</v>
+        <v>0.003881415262210275</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H18">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I18">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J18">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N18">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P18">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q18">
-        <v>268881.1560695258</v>
+        <v>440773.7431696289</v>
       </c>
       <c r="R18">
-        <v>268881.1560695258</v>
+        <v>3966963.688526661</v>
       </c>
       <c r="S18">
-        <v>0.1498754826061125</v>
+        <v>0.1771092786626597</v>
       </c>
       <c r="T18">
-        <v>0.1498754826061125</v>
+        <v>0.1827304423409835</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H19">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I19">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J19">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N19">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O19">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P19">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q19">
-        <v>177537.3539962514</v>
+        <v>278360.4594773151</v>
       </c>
       <c r="R19">
-        <v>177537.3539962514</v>
+        <v>2505244.135295836</v>
       </c>
       <c r="S19">
-        <v>0.09896006473551519</v>
+        <v>0.1118492672265665</v>
       </c>
       <c r="T19">
-        <v>0.09896006473551519</v>
+        <v>0.1153991830927964</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H20">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I20">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J20">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N20">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O20">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P20">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q20">
-        <v>208388.5444461946</v>
+        <v>331557.9046258556</v>
       </c>
       <c r="R20">
-        <v>208388.5444461946</v>
+        <v>2984021.1416327</v>
       </c>
       <c r="S20">
-        <v>0.1161566475130108</v>
+        <v>0.1332247717409733</v>
       </c>
       <c r="T20">
-        <v>0.1161566475130108</v>
+        <v>0.1374531117444902</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H21">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I21">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J21">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N21">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O21">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P21">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q21">
-        <v>62998.97238232059</v>
+        <v>98350.81238451166</v>
       </c>
       <c r="R21">
-        <v>62998.97238232059</v>
+        <v>590104.87430707</v>
       </c>
       <c r="S21">
-        <v>0.03511589107809398</v>
+        <v>0.03951878193117306</v>
       </c>
       <c r="T21">
-        <v>0.03511589107809398</v>
+        <v>0.0271820296771483</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H22">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I22">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J22">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N22">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O22">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P22">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q22">
-        <v>124.4709382737874</v>
+        <v>152.8567305374293</v>
       </c>
       <c r="R22">
-        <v>124.4709382737874</v>
+        <v>917.1403832245759</v>
       </c>
       <c r="S22">
-        <v>6.938062234229532E-05</v>
+        <v>6.142004986399121E-05</v>
       </c>
       <c r="T22">
-        <v>6.938062234229532E-05</v>
+        <v>4.224628231413154E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H23">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I23">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J23">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N23">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P23">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q23">
-        <v>6485.771468294263</v>
+        <v>7196.235419035098</v>
       </c>
       <c r="R23">
-        <v>6485.771468294263</v>
+        <v>43177.41251421059</v>
       </c>
       <c r="S23">
-        <v>0.003615196182183212</v>
+        <v>0.002891551694950891</v>
       </c>
       <c r="T23">
-        <v>0.003615196182183212</v>
+        <v>0.001988883263711223</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H24">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I24">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J24">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N24">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O24">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P24">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q24">
-        <v>4282.437348668668</v>
+        <v>4544.615982215259</v>
       </c>
       <c r="R24">
-        <v>4282.437348668668</v>
+        <v>27267.69589329155</v>
       </c>
       <c r="S24">
-        <v>0.002387048515204228</v>
+        <v>0.001826092572168441</v>
       </c>
       <c r="T24">
-        <v>0.002387048515204228</v>
+        <v>0.001256033209129562</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H25">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I25">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J25">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N25">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O25">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P25">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q25">
-        <v>5026.609137082933</v>
+        <v>5413.137179115995</v>
       </c>
       <c r="R25">
-        <v>5026.609137082933</v>
+        <v>32478.82307469597</v>
       </c>
       <c r="S25">
-        <v>0.0028018529870416</v>
+        <v>0.002175076977591886</v>
       </c>
       <c r="T25">
-        <v>0.0028018529870416</v>
+        <v>0.001496073615273741</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H26">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I26">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J26">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N26">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O26">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P26">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q26">
-        <v>1519.619089645168</v>
+        <v>1605.711797809888</v>
       </c>
       <c r="R26">
-        <v>1519.619089645168</v>
+        <v>6422.847191239552</v>
       </c>
       <c r="S26">
-        <v>0.0008470420455167181</v>
+        <v>0.0006451982738472413</v>
       </c>
       <c r="T26">
-        <v>0.0008470420455167181</v>
+        <v>0.0002958559242017269</v>
       </c>
     </row>
   </sheetData>
